--- a/biology/Zoologie/Alydus/Alydus.xlsx
+++ b/biology/Zoologie/Alydus/Alydus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alydus  est un genre d'insectes hémiptères (punaises) de la famille des Alydidae et de la sous-famille des Alydinae. L'espèce type pour le genre est Alydus calcaratus (Linnaeus, 1758).
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Corps presque linéaire; tête plus ou moins triangulaire, yeux arrondis très saillants quelquefois presque pédicellés. Lobe moyen un peu plus long que les latéraux; rostre ayant quatre articles, dont le premier est dépassé par le labre ; antennes presque filiformes insérées sur une ligne idéale passant par le milieu des yeux et à égale distance à peu près des yeux : B‘.- et de l’extrémité, ayant le dernier article plus long que les autres et le premier un peu en massue ; corselet plus ou moins carré, un peu plus étroit que la tête antérieurement ; cuisses postérieures épineuses ; premier article des tarses plus long que les suivants ; crochets ayant la base une membrane assez longue ; côté externe des élytres prolongé et aigu, leur membrane ayant beaucoup de nervures qui la rendent striée ; des ocelles"[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Corps presque linéaire; tête plus ou moins triangulaire, yeux arrondis très saillants quelquefois presque pédicellés. Lobe moyen un peu plus long que les latéraux; rostre ayant quatre articles, dont le premier est dépassé par le labre ; antennes presque filiformes insérées sur une ligne idéale passant par le milieu des yeux et à égale distance à peu près des yeux : B‘.- et de l’extrémité, ayant le dernier article plus long que les autres et le premier un peu en massue ; corselet plus ou moins carré, un peu plus étroit que la tête antérieurement ; cuisses postérieures épineuses ; premier article des tarses plus long que les suivants ; crochets ayant la base une membrane assez longue ; côté externe des élytres prolongé et aigu, leur membrane ayant beaucoup de nervures qui la rendent striée ; des ocelles".
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fréquente les pelouses sèches.
 </t>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son vol est très rapide.
 Il se nourrit du suc des plantes et des animaux morts, insectes mais aussi de petits vertébrés.
@@ -605,13 +623,84 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le genre Alydus a été décrit  par le naturaliste danois Johan Christian Fabricius en 1803[2].
-Synonymie
-Coriscus Schrank, 1796 [3]
-Liste des espèces
-Selon  Species File              (6 octobre 2019)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Alydus a été décrit  par le naturaliste danois Johan Christian Fabricius en 1803.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alydus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alydus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coriscus Schrank, 1796 </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alydus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alydus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon  Species File              (6 octobre 2019) :
 Alydus angulatus Hsiao, 1965
 Alydus calcaratus (Linnaeus, 1758)
 Alydus conspersus Montandon, 1893
